--- a/biology/Botanique/Platanaceae/Platanaceae.xlsx
+++ b/biology/Botanique/Platanaceae/Platanaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Platanaceae (Platanacées) sont une famille de plantes Eudicotylédones comprenant une dizaine d'espèces du genre Platanus.
 Ce sont de grands arbres, à feuilles caduques, des zones tempérées d'Amérique du Nord, du Sud-Est de l'Europe et d'Extrême-Orient.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Platanus qui dérive du grec πλάτανος / platanos, nom grec du Platanus orientalis, peut-être en rapport avec le mot grec πλάτος / platos, plat, plane[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Platanus qui dérive du grec πλάτανος / platanos, nom grec du Platanus orientalis, peut-être en rapport avec le mot grec πλάτος / platos, plat, plane,.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[3] place cette famille dans l'ordre des Proteales.
-En classification phylogénétique APG II (2003)[4] cette famille est optionnelle : les plantes peuvent être incluses dans les Proteacées.
-En classification phylogénétique APG III (2009)[5], qui n'a jamais recours à des familles optionnelles, cette famille est reconnue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) place cette famille dans l'ordre des Proteales.
+En classification phylogénétique APG II (2003) cette famille est optionnelle : les plantes peuvent être incluses dans les Proteacées.
+En classification phylogénétique APG III (2009), qui n'a jamais recours à des familles optionnelles, cette famille est reconnue.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>État, pression, menaces sur les populations de platane</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont menacés par une maladie cryptogamique grave : le chancre coloré du platane (Ceratocystis platani ou Ceratocystis fimbriata f. sp. platani (champignon microscopique), probablement été introduit en France à partir des États-Unis en 1944. Cette maladie s'étend depuis la fin du XXe siècle en Aquitaine, Languedoc-Roussillon (le long du canal du Midi),  en Midi Pyrénées, PACA et Rhône Alpes et touche aussi la Grèce, l'Italie, la Suisse. Ce champignon tue les platanes en quelques mois à 3 ans, après craquellement de l'écorce et coloration violacée[6]. les spores du champignon sont supposés être véhiculées par l'eau, les activités humaines (taille, entretien des fossés, chantier, navigation...), certains rongeurs et le platane lui-même via ses anastomose racinaires[7],[8]. Ce même pathogène a été pour la première fois repéré sur une autre espèce (Dalbergia sissoo) au Pakistan[9].
-D'autres maladies, plus communes du platane sont l'Anthracnose du platane, l'Oïdium du platane ou les infestations par le Tigre du platane[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont menacés par une maladie cryptogamique grave : le chancre coloré du platane (Ceratocystis platani ou Ceratocystis fimbriata f. sp. platani (champignon microscopique), probablement été introduit en France à partir des États-Unis en 1944. Cette maladie s'étend depuis la fin du XXe siècle en Aquitaine, Languedoc-Roussillon (le long du canal du Midi),  en Midi Pyrénées, PACA et Rhône Alpes et touche aussi la Grèce, l'Italie, la Suisse. Ce champignon tue les platanes en quelques mois à 3 ans, après craquellement de l'écorce et coloration violacée. les spores du champignon sont supposés être véhiculées par l'eau, les activités humaines (taille, entretien des fossés, chantier, navigation...), certains rongeurs et le platane lui-même via ses anastomose racinaires,. Ce même pathogène a été pour la première fois repéré sur une autre espèce (Dalbergia sissoo) au Pakistan.
+D'autres maladies, plus communes du platane sont l'Anthracnose du platane, l'Oïdium du platane ou les infestations par le Tigre du platane
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 avr. 2010)[10], Angiosperm Phylogeny Website                        (19 mai 2010)[11], DELTA Angio           (23 avr. 2010)[12] &amp; ITIS      (23 avr. 2010)[13] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 avr. 2010), Angiosperm Phylogeny Website                        (19 mai 2010), DELTA Angio           (23 avr. 2010) &amp; ITIS      (23 avr. 2010) :
 genre Platanus  L.
 genre †Macginicarpa
 genre †Macginitiea
@@ -643,9 +663,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 avr. 2010)[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 avr. 2010) :
 genre Platanus
 Platanus gentryi
 Platanus kerrii
